--- a/Design/Excel/ShareTool/Datas/RemoteBuilder.xlsx
+++ b/Design/Excel/ShareTool/Datas/RemoteBuilder.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>##var#column</t>
   </si>
@@ -31,13 +31,19 @@
     <t>int</t>
   </si>
   <si>
+    <t>ServerIP</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>192.168.3.1</t>
+  </si>
+  <si>
     <t>ServerInnerIP</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>192.168.3.1</t>
+    <t>127.0.0.1</t>
   </si>
   <si>
     <t>ServerPort</t>
@@ -988,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1036,26 +1042,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" customFormat="1"/>
-    <row r="26" spans="3:3">
-      <c r="C26" s="2"/>
-    </row>
+      <c r="C5" s="1">
+        <v>7677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1"/>
     <row r="27" spans="3:3">
       <c r="C27" s="2"/>
     </row>
@@ -1070,6 +1087,9 @@
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Design/Excel/ShareTool/Datas/RemoteBuilder.xlsx
+++ b/Design/Excel/ShareTool/Datas/RemoteBuilder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="OneConfig" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>ServerPort</t>
+    <t>ServerOuterPort</t>
   </si>
   <si>
     <t>ServerUnityPath</t>
@@ -997,7 +997,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
